--- a/ConsecrationDemo/Configs/Skills.xlsx
+++ b/ConsecrationDemo/Configs/Skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BooomConsecration\ConsecrationDemo\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30157EFD-7BED-4201-B723-A87E46B4F8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE67F52D-19ED-4627-8B06-DB44B00AC70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="11872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,23 +55,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>死神献祭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>觉醒刀刃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十步杀一人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>冷却时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cooldown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐虐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对前方1格造成3点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳垢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奸奇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>色孽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对前方2格造成4点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对相邻单位各造成1点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸收相邻单位各1点生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后退1格，将前方单位拉拽到相邻位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克苏鲁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>犹格·索托斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与前方单位交换位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与前方单位交换位置，获得1个额外回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对前方1格造成2点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对前方和后方1格造成2点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>otherSide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whichSide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后退1格，将前方单位拉拽到相邻位置，立即使用当前技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向前移动1格，获得1个额外的回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向前移动1格，获得3个额外的回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨拉塔斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射出1道能量，对第一个单位造成3点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射出1道能量，穿过所有单位造成2点伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,21 +489,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="15.19921875" customWidth="1"/>
-    <col min="3" max="3" width="17.46484375" customWidth="1"/>
-    <col min="4" max="4" width="11.9296875" customWidth="1"/>
+    <col min="1" max="1" width="14.46484375" customWidth="1"/>
+    <col min="2" max="2" width="19.19921875" customWidth="1"/>
+    <col min="3" max="3" width="52.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.9296875" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -422,10 +516,16 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -436,10 +536,16 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -452,47 +558,291 @@
       <c r="D3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>10001</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>11111</v>
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>10002</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>22222</v>
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>10003</v>
       </c>
       <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>10004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>10004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>10003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>10005</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C6">
-        <v>33333</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>10006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>10006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>10005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>10007</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>10008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>10008</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>10007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>10009</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>10010</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>10010</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>10009</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>10011</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>10012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>10012</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>10011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>10013</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>10014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>10014</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>10013</v>
       </c>
     </row>
   </sheetData>

--- a/ConsecrationDemo/Configs/Skills.xlsx
+++ b/ConsecrationDemo/Configs/Skills.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BooomConsecration\ConsecrationDemo\Configs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git\BooomConsecration\ConsecrationDemo\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE67F52D-19ED-4627-8B06-DB44B00AC70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D719DB-3038-455F-BD15-59B698ED05BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8025" yWindow="5955" windowWidth="19665" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,10 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>卡面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>对前方2格造成4点伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,10 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对应面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>与前方单位交换位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,18 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>otherSide</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>whichSide</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>后退1格，将前方单位拉拽到相邻位置，立即使用当前技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -164,6 +144,38 @@
   </si>
   <si>
     <t>射出1道能量，穿过所有单位造成2点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>move_dis</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,23 +501,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.46484375" customWidth="1"/>
-    <col min="2" max="2" width="19.19921875" customWidth="1"/>
-    <col min="3" max="3" width="52.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.9296875" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="19.25" customWidth="1"/>
+    <col min="3" max="3" width="50.75" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -519,13 +531,19 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -539,13 +557,19 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -559,93 +583,123 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10001</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="F4">
-        <v>10002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10002</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="F5">
-        <v>10001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10003</v>
       </c>
       <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
       </c>
       <c r="D6">
         <v>4</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="F6">
-        <v>10004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>10004</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>4</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="F7">
-        <v>10003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>10005</v>
       </c>
@@ -659,13 +713,19 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="F8">
-        <v>10006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>10006</v>
       </c>
@@ -673,19 +733,25 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9">
         <v>4</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="F9">
-        <v>10005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10007</v>
       </c>
@@ -693,19 +759,25 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="F10">
-        <v>10008</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10008</v>
       </c>
@@ -713,19 +785,25 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11">
         <v>3</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="F11">
-        <v>10007</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10009</v>
       </c>
@@ -733,19 +811,25 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="F12">
-        <v>10010</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10010</v>
       </c>
@@ -753,19 +837,25 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="F13">
-        <v>10009</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10011</v>
       </c>
@@ -773,19 +863,25 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14">
         <v>4</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="F14">
-        <v>10012</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>10012</v>
       </c>
@@ -793,56 +889,74 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D15">
         <v>4</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="F15">
-        <v>10011</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>10013</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D16">
         <v>4</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="F16">
-        <v>10014</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>10014</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D17">
         <v>4</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="F17">
-        <v>10013</v>
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/ConsecrationDemo/Configs/Skills.xlsx
+++ b/ConsecrationDemo/Configs/Skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git\BooomConsecration\ConsecrationDemo\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D719DB-3038-455F-BD15-59B698ED05BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44FDC28-FDD1-4E63-AD4E-E06DE0B7A9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8025" yWindow="5955" windowWidth="19665" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2655" yWindow="2715" windowWidth="21360" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,47 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Jimmy</author>
+  </authors>
+  <commentList>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{41FA66E4-F184-4839-BA93-7410F335905E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Jimmy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0 = 无需配置
+1 = 前方
+2 = 后方
+3 = 前后两方</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -176,6 +215,22 @@
   </si>
   <si>
     <t>move_dis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家普攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击范围方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rangeDir</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -183,7 +238,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +252,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -500,11 +570,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -515,9 +585,10 @@
     <col min="4" max="4" width="13.875" customWidth="1"/>
     <col min="5" max="5" width="12.75" customWidth="1"/>
     <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -542,8 +613,11 @@
       <c r="H1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -568,8 +642,11 @@
       <c r="H2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -594,8 +671,11 @@
       <c r="H3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10001</v>
       </c>
@@ -620,8 +700,11 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10002</v>
       </c>
@@ -646,8 +729,11 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10003</v>
       </c>
@@ -672,8 +758,11 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>10004</v>
       </c>
@@ -698,8 +787,11 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>10005</v>
       </c>
@@ -724,8 +816,11 @@
       <c r="H8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>10006</v>
       </c>
@@ -750,8 +845,11 @@
       <c r="H9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10007</v>
       </c>
@@ -776,8 +874,11 @@
       <c r="H10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10008</v>
       </c>
@@ -802,8 +903,11 @@
       <c r="H11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10009</v>
       </c>
@@ -828,8 +932,11 @@
       <c r="H12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10010</v>
       </c>
@@ -854,8 +961,11 @@
       <c r="H13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10011</v>
       </c>
@@ -880,8 +990,11 @@
       <c r="H14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>10012</v>
       </c>
@@ -906,8 +1019,11 @@
       <c r="H15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>10013</v>
       </c>
@@ -932,8 +1048,11 @@
       <c r="H16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>10014</v>
       </c>
@@ -957,11 +1076,73 @@
       </c>
       <c r="H17">
         <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>80001</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>9000101</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ConsecrationDemo/Configs/Skills.xlsx
+++ b/ConsecrationDemo/Configs/Skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git\BooomConsecration\ConsecrationDemo\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44FDC28-FDD1-4E63-AD4E-E06DE0B7A9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38925871-C712-4446-A08E-C6033E0BA62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2655" yWindow="2715" windowWidth="21360" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12945" yWindow="2940" windowWidth="21360" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -574,7 +574,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -689,7 +689,7 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -718,7 +718,7 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>1</v>

--- a/ConsecrationDemo/Configs/Skills.xlsx
+++ b/ConsecrationDemo/Configs/Skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BooomConsecration\ConsecrationDemo\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFBD006-579E-40EC-B314-54923D40E152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB10AC64-9043-42C2-850D-EF31E13321C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21520" yWindow="4670" windowWidth="21600" windowHeight="11870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="1628" windowWidth="22215" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -135,13 +135,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>后退1格，将前方单位拉拽到相邻位置</t>
-  </si>
-  <si>
-    <t>后退1格，将前方单位拉拽到相邻位置，之后立即使用技能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>射出1道能量，对第一个单位造成2点伤害</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -190,14 +183,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>向前冲撞，对第一个角色造成2点伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>向前冲撞，对第一个角色造成3点伤害并击退1格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>对相邻单位各造成1点伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -224,6 +209,22 @@
   <si>
     <t>向前移动1格，获得1个额外的回合</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后退1格，将前方第一个单位拉拽到相邻位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后退1格，将前方第一个单位拉拽到相邻位置，之后立即使用技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>向前冲撞，对第一个单位造成2点伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>向前冲撞，对第一个单位造成3点伤害并击退1格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -273,10 +274,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -592,13 +596,13 @@
         <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
         <v>35</v>
-      </c>
-      <c r="H1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
@@ -618,13 +622,13 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
         <v>36</v>
-      </c>
-      <c r="H2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
@@ -658,10 +662,10 @@
         <v>10000</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -739,7 +743,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -765,7 +769,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -788,10 +792,10 @@
         <v>10005</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -814,10 +818,10 @@
         <v>10006</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -892,7 +896,7 @@
         <v>10009</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>22</v>
@@ -918,7 +922,7 @@
         <v>10010</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>23</v>
@@ -944,10 +948,10 @@
         <v>10011</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -970,7 +974,7 @@
         <v>10012</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>24</v>
@@ -1051,7 +1055,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -1076,8 +1080,8 @@
       <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>28</v>
+      <c r="C20" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="D20">
         <v>4</v>
@@ -1103,7 +1107,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D21">
         <v>4</v>
@@ -1129,7 +1133,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D22">
         <v>4</v>
@@ -1155,7 +1159,7 @@
         <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D23">
         <v>4</v>
@@ -1181,7 +1185,7 @@
         <v>17</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D24">
         <v>4</v>

--- a/ConsecrationDemo/Configs/Skills.xlsx
+++ b/ConsecrationDemo/Configs/Skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BooomConsecration\ConsecrationDemo\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB10AC64-9043-42C2-850D-EF31E13321C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8E12D8-2269-4397-9C07-959086315E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="1628" windowWidth="22215" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2078" yWindow="1965" windowWidth="22214" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -565,7 +565,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/ConsecrationDemo/Configs/Skills.xlsx
+++ b/ConsecrationDemo/Configs/Skills.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BooomConsecration\ConsecrationDemo\Configs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git\BooomConsecration\ConsecrationDemo\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8E12D8-2269-4397-9C07-959086315E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1AF06F-E805-4BEF-BDFB-1D9D75C5219E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2078" yWindow="1965" windowWidth="22214" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3300" yWindow="4290" windowWidth="21360" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>狂暴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>冲突</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -224,6 +220,10 @@
   </si>
   <si>
     <t>向前冲撞，对第一个单位造成3点伤害并击退1格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>愤怒</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -565,21 +565,21 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.46484375" customWidth="1"/>
-    <col min="2" max="2" width="19.265625" customWidth="1"/>
-    <col min="3" max="3" width="50.73046875" customWidth="1"/>
-    <col min="4" max="4" width="13.86328125" customWidth="1"/>
-    <col min="5" max="6" width="14.796875" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="19.25" customWidth="1"/>
+    <col min="3" max="3" width="50.75" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="6" width="14.75" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -596,16 +596,16 @@
         <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -622,16 +622,16 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -657,16 +657,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10000</v>
       </c>
       <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
       <c r="D4">
         <v>0</v>
       </c>
@@ -683,15 +683,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10001</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -709,15 +709,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10002</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -735,15 +735,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>10003</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -761,15 +761,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>10004</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -787,15 +787,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>10005</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -813,15 +813,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10006</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -839,15 +839,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10007</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -865,15 +865,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10008</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -891,15 +891,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10009</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -917,15 +917,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10010</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14">
         <v>4</v>
@@ -943,15 +943,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>10011</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -969,15 +969,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>10012</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16">
         <v>4</v>
@@ -995,15 +995,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>10013</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17">
         <v>4</v>
@@ -1021,15 +1021,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>10014</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -1047,15 +1047,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>10015</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -1073,15 +1073,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>10016</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20">
         <v>4</v>
@@ -1099,15 +1099,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>10017</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21">
         <v>4</v>
@@ -1125,15 +1125,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>10018</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22">
         <v>4</v>
@@ -1151,15 +1151,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>10019</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23">
         <v>4</v>
@@ -1177,15 +1177,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>10020</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24">
         <v>4</v>

--- a/ConsecrationDemo/Configs/Skills.xlsx
+++ b/ConsecrationDemo/Configs/Skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git\BooomConsecration\ConsecrationDemo\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1AF06F-E805-4BEF-BDFB-1D9D75C5219E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAAF23B9-C73F-4B86-AED6-8CA4CDDFEA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="4290" windowWidth="21360" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6195" yWindow="1395" windowWidth="9465" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,14 +103,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>血祭前方1格的技能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>血祭相邻1格的2个技能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>对前方和后方1格造成1点伤害</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -224,6 +216,14 @@
   </si>
   <si>
     <t>愤怒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>献祭前方1格的技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>献祭相邻1格的2个技能</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -564,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -596,13 +596,13 @@
         <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
         <v>32</v>
-      </c>
-      <c r="H1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -622,13 +622,13 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
         <v>33</v>
-      </c>
-      <c r="H2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -662,10 +662,10 @@
         <v>10000</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>10001</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>17</v>
@@ -714,7 +714,7 @@
         <v>10002</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>18</v>
@@ -743,7 +743,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -769,7 +769,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -792,10 +792,10 @@
         <v>10005</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -818,10 +818,10 @@
         <v>10006</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -847,7 +847,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -873,7 +873,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -896,10 +896,10 @@
         <v>10009</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -922,10 +922,10 @@
         <v>10010</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D14">
         <v>4</v>
@@ -948,10 +948,10 @@
         <v>10011</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -974,10 +974,10 @@
         <v>10012</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D16">
         <v>4</v>
@@ -1003,7 +1003,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D17">
         <v>4</v>
@@ -1029,7 +1029,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -1055,7 +1055,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -1081,7 +1081,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D20">
         <v>4</v>
@@ -1107,7 +1107,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D21">
         <v>4</v>
@@ -1133,7 +1133,7 @@
         <v>15</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D22">
         <v>4</v>
@@ -1159,7 +1159,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D23">
         <v>4</v>
@@ -1185,7 +1185,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D24">
         <v>4</v>

--- a/ConsecrationDemo/Configs/Skills.xlsx
+++ b/ConsecrationDemo/Configs/Skills.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git\BooomConsecration\ConsecrationDemo\Configs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BooomConsecration\ConsecrationDemo\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAAF23B9-C73F-4B86-AED6-8CA4CDDFEA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876E883A-9429-4E71-89EC-8E138D88DD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6195" yWindow="1395" windowWidth="9465" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19470" yWindow="4270" windowWidth="18940" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -565,21 +565,21 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="19.25" customWidth="1"/>
-    <col min="3" max="3" width="50.75" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
-    <col min="5" max="6" width="14.75" customWidth="1"/>
+    <col min="1" max="1" width="14.46484375" customWidth="1"/>
+    <col min="2" max="2" width="19.265625" customWidth="1"/>
+    <col min="3" max="3" width="50.73046875" customWidth="1"/>
+    <col min="4" max="4" width="13.86328125" customWidth="1"/>
+    <col min="5" max="6" width="14.73046875" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="13.625" customWidth="1"/>
+    <col min="8" max="8" width="13.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -605,7 +605,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -631,7 +631,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -657,7 +657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>10000</v>
       </c>
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>10001</v>
       </c>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>10002</v>
       </c>
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>10003</v>
       </c>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>10004</v>
       </c>
@@ -787,7 +787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>10005</v>
       </c>
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>10006</v>
       </c>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10007</v>
       </c>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10008</v>
       </c>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>10009</v>
       </c>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>10010</v>
       </c>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>10011</v>
       </c>
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>10012</v>
       </c>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>10013</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>10014</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>10015</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>10016</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>10017</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>10018</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>10019</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>10020</v>
       </c>

--- a/ConsecrationDemo/Configs/Skills.xlsx
+++ b/ConsecrationDemo/Configs/Skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BooomConsecration\ConsecrationDemo\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876E883A-9429-4E71-89EC-8E138D88DD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9334102-59AD-4B34-9DB6-360FCA13526F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19470" yWindow="4270" windowWidth="18940" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1837" yWindow="1140" windowWidth="24308" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -565,7 +565,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -694,7 +694,7 @@
         <v>17</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -720,7 +720,7 @@
         <v>18</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -850,7 +850,7 @@
         <v>48</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>49</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>19</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -928,7 +928,7 @@
         <v>20</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -954,7 +954,7 @@
         <v>42</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -980,7 +980,7 @@
         <v>21</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>43</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1084,7 +1084,7 @@
         <v>44</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>24</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1136,7 +1136,7 @@
         <v>25</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E22">
         <v>2</v>

--- a/ConsecrationDemo/Configs/Skills.xlsx
+++ b/ConsecrationDemo/Configs/Skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BooomConsecration\ConsecrationDemo\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9334102-59AD-4B34-9DB6-360FCA13526F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24F4B75-42A6-401D-9F71-92009DD14F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1837" yWindow="1140" windowWidth="24308" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="368" yWindow="368" windowWidth="24307" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -565,7 +565,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -954,7 +954,7 @@
         <v>42</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -980,7 +980,7 @@
         <v>21</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16">
         <v>0</v>

--- a/ConsecrationDemo/Configs/Skills.xlsx
+++ b/ConsecrationDemo/Configs/Skills.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BooomConsecration\ConsecrationDemo\Configs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git\BooomConsecration\ConsecrationDemo\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24F4B75-42A6-401D-9F71-92009DD14F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335F716B-0934-42B7-A2E4-2642B49022FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="368" yWindow="368" windowWidth="24307" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12135" yWindow="4095" windowWidth="16260" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -123,14 +123,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>射出1道能量，对第一个单位造成2点伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>射出1道能量，穿过所有单位造成2点伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>与前方第一个单位交换位置</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -219,11 +211,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>献祭前方1格的技能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>献祭相邻1格的2个技能</t>
+    <t>血祭前方1格的技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>血祭相邻1格的2个技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>向前射出1道能量，对第一个单位造成2点伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>向前射出1道能量，穿过所有单位并造成2点伤害</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -565,21 +565,21 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.46484375" customWidth="1"/>
-    <col min="2" max="2" width="19.265625" customWidth="1"/>
-    <col min="3" max="3" width="50.73046875" customWidth="1"/>
-    <col min="4" max="4" width="13.86328125" customWidth="1"/>
-    <col min="5" max="6" width="14.73046875" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="19.25" customWidth="1"/>
+    <col min="3" max="3" width="50.75" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="6" width="14.75" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="13.59765625" customWidth="1"/>
+    <col min="8" max="8" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -596,16 +596,16 @@
         <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -622,16 +622,16 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
         <v>31</v>
       </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -657,15 +657,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10000</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -683,12 +683,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10001</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>17</v>
@@ -709,12 +709,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10002</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>18</v>
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>10003</v>
       </c>
@@ -743,7 +743,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>10004</v>
       </c>
@@ -769,7 +769,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -787,15 +787,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>10005</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -813,15 +813,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10006</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10007</v>
       </c>
@@ -847,7 +847,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10008</v>
       </c>
@@ -873,7 +873,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -891,12 +891,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10009</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>19</v>
@@ -917,12 +917,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10010</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>20</v>
@@ -943,15 +943,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>10011</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -969,12 +969,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>10012</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>21</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>10013</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>10014</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>10015</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D19">
         <v>5</v>
@@ -1073,7 +1073,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>10016</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D20">
         <v>5</v>
@@ -1099,7 +1099,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>10017</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D21">
         <v>5</v>
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>10018</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>15</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D22">
         <v>5</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>10019</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D23">
         <v>4</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>10020</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D24">
         <v>4</v>

--- a/ConsecrationDemo/Configs/Skills.xlsx
+++ b/ConsecrationDemo/Configs/Skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git\BooomConsecration\ConsecrationDemo\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335F716B-0934-42B7-A2E4-2642B49022FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7019163-8120-4831-9213-AE71F011532D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12135" yWindow="4095" windowWidth="16260" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -565,7 +565,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -954,7 +954,7 @@
         <v>40</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -980,7 +980,7 @@
         <v>21</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E16">
         <v>0</v>
